--- a/acoes.xlsx
+++ b/acoes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ativo</t>
   </si>
@@ -37,27 +37,6 @@
   </si>
   <si>
     <t>GGBR4</t>
-  </si>
-  <si>
-    <t>HCTR11</t>
-  </si>
-  <si>
-    <t>MALL11</t>
-  </si>
-  <si>
-    <t>MGFF11</t>
-  </si>
-  <si>
-    <t>PLCR11</t>
-  </si>
-  <si>
-    <t>PVBI11</t>
-  </si>
-  <si>
-    <t>RBRF11</t>
-  </si>
-  <si>
-    <t>RECR11</t>
   </si>
 </sst>
 </file>
@@ -396,9 +375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -459,83 +440,6 @@
       </c>
       <c r="C5">
         <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>120.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>70.510000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>88.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>85.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>82.38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>99.96</v>
       </c>
     </row>
   </sheetData>
